--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91861\PycharmProjects\pytest_plawright_framework_scratch\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achowds8\PycharmProjects\playwright_python_from_Scratch\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61686559-E05B-4B55-9A44-B8B7BCE30B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A10608-82C0-44FF-9A18-CAC34714673F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>5navidm@gmail.com</t>
   </si>
   <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>asdfg0</t>
+  </si>
+  <si>
     <t>asdfgh</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>asdfg0</t>
   </si>
 </sst>
 </file>
@@ -380,16 +380,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,26 +400,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
